--- a/Files/calculations.xlsx
+++ b/Files/calculations.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="5250"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="5250" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Solenoids" sheetId="2" r:id="rId1"/>
-    <sheet name="Connections" sheetId="4" r:id="rId2"/>
-    <sheet name="Electric" sheetId="1" r:id="rId3"/>
-    <sheet name="Sensors" sheetId="3" r:id="rId4"/>
+    <sheet name="Calibration" sheetId="3" r:id="rId2"/>
+    <sheet name="Connections" sheetId="4" r:id="rId3"/>
+    <sheet name="Electric" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="102">
   <si>
     <t>Raspberry</t>
   </si>
@@ -167,30 +167,6 @@
     <t>На пинах Расбери</t>
   </si>
   <si>
-    <t>pin 0 row value</t>
-  </si>
-  <si>
-    <t>pin 1 row value</t>
-  </si>
-  <si>
-    <t>pin 2 row value</t>
-  </si>
-  <si>
-    <t>pin 3 row value</t>
-  </si>
-  <si>
-    <t>serie 1</t>
-  </si>
-  <si>
-    <t>serie 2</t>
-  </si>
-  <si>
-    <t>dry</t>
-  </si>
-  <si>
-    <t>wet</t>
-  </si>
-  <si>
     <t>Cable colors</t>
   </si>
   <si>
@@ -357,6 +333,69 @@
   </si>
   <si>
     <t>20s measurements</t>
+  </si>
+  <si>
+    <t>Weight sol</t>
+  </si>
+  <si>
+    <t>Weight water max</t>
+  </si>
+  <si>
+    <t>water 30%</t>
+  </si>
+  <si>
+    <t>Weight soil</t>
+  </si>
+  <si>
+    <t>water 10%</t>
+  </si>
+  <si>
+    <t>water 50%</t>
+  </si>
+  <si>
+    <t>water 70%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> water 100%</t>
+  </si>
+  <si>
+    <t>Sensor value 10%</t>
+  </si>
+  <si>
+    <t>Sensor value 30%</t>
+  </si>
+  <si>
+    <t>Sensor value 50%</t>
+  </si>
+  <si>
+    <t>Sensor value 70%</t>
+  </si>
+  <si>
+    <t>Sensor value 100%</t>
+  </si>
+  <si>
+    <t>Sensor value 0%</t>
+  </si>
+  <si>
+    <t>water 0%</t>
+  </si>
+  <si>
+    <t>+10%</t>
+  </si>
+  <si>
+    <t>+20%</t>
+  </si>
+  <si>
+    <t>+30%</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>Duration work valves, s</t>
+  </si>
+  <si>
+    <t>Water max/soil</t>
   </si>
 </sst>
 </file>
@@ -367,7 +406,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,8 +469,31 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -468,8 +530,25 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -583,11 +662,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -659,9 +753,45 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="20% — акцент1" xfId="3" builtinId="30"/>
+    <cellStyle name="40% — акцент2" xfId="4" builtinId="35"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Процентный" xfId="1" builtinId="5"/>
+    <cellStyle name="Хороший" xfId="2" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3560,16 +3690,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>473075</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>1066801</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>901701</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3590,16 +3720,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>857249</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3886,8 +4016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3904,7 +4034,7 @@
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B2" s="12">
         <v>108</v>
@@ -3913,7 +4043,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C3" s="15">
         <v>1</v>
@@ -3964,10 +4094,10 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C4" s="18">
         <f>200-B2</f>
@@ -4032,10 +4162,10 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C5" s="18">
         <f>C4/C3</f>
@@ -4100,7 +4230,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C6" s="21">
         <f>C5/20</f>
@@ -4182,10 +4312,10 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C8" s="18">
         <f>154-B2</f>
@@ -4250,10 +4380,10 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C9" s="18">
         <f>C8/C3</f>
@@ -4318,7 +4448,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C10" s="21">
         <f>C9/10</f>
@@ -4383,104 +4513,104 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C11" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="L11" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="M11" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="N11" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="O11" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" s="35" t="s">
+      <c r="Q11" s="37" t="s">
         <v>61</v>
-      </c>
-      <c r="J11" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="K11" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="L11" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="M11" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="N11" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="O11" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="P11" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="37" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" s="33" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="O13" s="11" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="P13" s="11" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="Q13" s="11" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C14" s="40">
         <f>C10</f>
@@ -4533,7 +4663,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C15" s="40">
         <f>D10</f>
@@ -4586,7 +4716,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C16" s="40">
         <f>E10</f>
@@ -4639,7 +4769,7 @@
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C17" s="40">
         <f>F10</f>
@@ -4692,110 +4822,110 @@
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="33" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C19" s="1">
-        <f>C14-D14</f>
+        <f t="shared" ref="C19:E22" si="20">C14-D14</f>
         <v>3.3333333333333215E-2</v>
       </c>
       <c r="D19" s="1">
-        <f>D14-E14</f>
+        <f t="shared" si="20"/>
         <v>6.666666666666643E-2</v>
       </c>
       <c r="E19" s="1">
-        <f>E14-F14</f>
+        <f t="shared" si="20"/>
         <v>9.9999999999999645E-2</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C20" s="1">
-        <f>C15-D15</f>
+        <f t="shared" si="20"/>
         <v>6.666666666666643E-2</v>
       </c>
       <c r="D20" s="1">
-        <f>D15-E15</f>
+        <f t="shared" si="20"/>
         <v>0.10000000000000053</v>
       </c>
       <c r="E20" s="1">
-        <f>E15-F15</f>
+        <f t="shared" si="20"/>
         <v>3.3333333333332771E-2</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C21" s="1">
-        <f>C16-D16</f>
+        <f t="shared" si="20"/>
         <v>0.16666666666666652</v>
       </c>
       <c r="D21" s="1">
-        <f>D16-E16</f>
+        <f t="shared" si="20"/>
         <v>3.3333333333333659E-2</v>
       </c>
       <c r="E21" s="1">
-        <f>E16-F16</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C22" s="1">
-        <f>C17-D17</f>
+        <f t="shared" si="20"/>
         <v>0.10000000000000053</v>
       </c>
       <c r="D22" s="1">
-        <f>D17-E17</f>
+        <f t="shared" si="20"/>
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="E22" s="1">
-        <f>E17-F17</f>
+        <f t="shared" si="20"/>
         <v>0.10000000000000009</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="N25" s="11" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="O25" s="11" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="P25" s="11" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="Q25" s="11" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G26">
         <f>(-B2)/20</f>
@@ -4828,7 +4958,7 @@
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G27">
         <f>(-B2)/20</f>
@@ -4861,7 +4991,7 @@
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H28">
         <f>(-B2)/20</f>
@@ -4894,7 +5024,7 @@
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I29">
         <f>(-B2)/20</f>
@@ -4933,6 +5063,347 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:X16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" customWidth="1"/>
+    <col min="3" max="3" width="3.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="19" style="19" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="19" customWidth="1"/>
+    <col min="8" max="8" width="19" style="19" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" style="19" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" style="19" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" style="19" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" style="19" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" style="19" customWidth="1"/>
+    <col min="15" max="15" width="15" style="19" customWidth="1"/>
+    <col min="16" max="16" width="20.42578125" style="19" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="19"/>
+    <col min="24" max="24" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D2" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="57">
+        <f>0*Solenoids!Q8</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="58">
+        <f>G6/(Solenoids!Q8/10)</f>
+        <v>3.4666311087405819</v>
+      </c>
+      <c r="I2" s="58">
+        <f>I6/(Solenoids!Q8/10)</f>
+        <v>6.9332622174811638</v>
+      </c>
+      <c r="K2" s="58">
+        <f>K6/(Solenoids!Q8/10)</f>
+        <v>6.9332622174811638</v>
+      </c>
+      <c r="M2" s="58">
+        <f>M6/(Solenoids!Q8/10)</f>
+        <v>6.9332622174811638</v>
+      </c>
+      <c r="O2" s="58">
+        <f>O6/(Solenoids!Q8/10)</f>
+        <v>10.399893326221747</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G3" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" s="55"/>
+      <c r="I3" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" s="55"/>
+      <c r="K3" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="L3" s="55"/>
+      <c r="M3" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="N3" s="55"/>
+      <c r="O3" s="54" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="10">
+        <v>566</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="L4" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="M4" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="N4" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="O4" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="P4" s="50" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="10">
+        <v>619</v>
+      </c>
+      <c r="D5" s="52"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="20"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D6" s="52">
+        <f>641-137</f>
+        <v>504</v>
+      </c>
+      <c r="E6" s="18">
+        <f>D6*0*B7</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="G6" s="43">
+        <f>D6*B7*10/100</f>
+        <v>55.119434628975256</v>
+      </c>
+      <c r="H6" s="20"/>
+      <c r="I6" s="43">
+        <f>G6*2</f>
+        <v>110.23886925795051</v>
+      </c>
+      <c r="J6" s="20"/>
+      <c r="K6" s="43">
+        <f>G6*2</f>
+        <v>110.23886925795051</v>
+      </c>
+      <c r="L6" s="20"/>
+      <c r="M6" s="43">
+        <f>G6*2</f>
+        <v>110.23886925795051</v>
+      </c>
+      <c r="N6" s="23"/>
+      <c r="O6" s="43">
+        <f>G6*3</f>
+        <v>165.35830388692577</v>
+      </c>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="56">
+        <f>O6+M6+K6+I6+G6</f>
+        <v>551.1943462897525</v>
+      </c>
+      <c r="V6" s="10"/>
+      <c r="X6" s="13"/>
+    </row>
+    <row r="7" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="60">
+        <f>B5/B4</f>
+        <v>1.0936395759717314</v>
+      </c>
+      <c r="D7" s="52"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="22"/>
+      <c r="V7" s="10"/>
+      <c r="X7" s="13"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D8" s="52"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="22"/>
+      <c r="V8" s="10"/>
+      <c r="X8" s="13"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D9" s="52"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="22"/>
+      <c r="V9" s="10"/>
+      <c r="X9" s="13"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D10" s="52"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="20"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D11" s="52"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="20"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D12" s="52"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="20"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D13" s="52"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="20"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D14" s="53"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="48"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N16" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="O16" s="44">
+        <f>D6*B7</f>
+        <v>551.19434628975262</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E22"/>
   <sheetViews>
@@ -4950,27 +5421,27 @@
   <sheetData>
     <row r="3" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="14" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E4" s="4">
         <v>24</v>
@@ -4982,7 +5453,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E5" s="4">
         <v>23</v>
@@ -4994,7 +5465,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E6" s="4">
         <v>15</v>
@@ -5006,7 +5477,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E7" s="4">
         <v>18</v>
@@ -5014,13 +5485,13 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C8" s="4">
         <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E8" s="4">
         <v>14</v>
@@ -5028,13 +5499,13 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C9" s="4">
         <v>6</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E9" s="4">
         <v>22</v>
@@ -5042,13 +5513,13 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C10" s="4">
         <v>7</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E10" s="4">
         <v>27</v>
@@ -5056,13 +5527,13 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C11" s="4">
         <v>8</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E11" s="4">
         <v>17</v>
@@ -5070,18 +5541,18 @@
     </row>
     <row r="14" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C15" s="4">
         <v>0</v>
@@ -5090,7 +5561,7 @@
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C16" s="4">
         <v>1</v>
@@ -5099,7 +5570,7 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C17" s="4">
         <v>2</v>
@@ -5108,7 +5579,7 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C18" s="4">
         <v>3</v>
@@ -5149,7 +5620,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K26"/>
   <sheetViews>
@@ -5357,276 +5828,4 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:S14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="19" max="19" width="13.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4">
-        <v>696</v>
-      </c>
-      <c r="F4">
-        <v>696</v>
-      </c>
-      <c r="G4">
-        <v>696</v>
-      </c>
-      <c r="H4">
-        <v>696</v>
-      </c>
-      <c r="I4" s="10">
-        <f>AVERAGE(E4:H4)</f>
-        <v>696</v>
-      </c>
-      <c r="J4">
-        <v>686</v>
-      </c>
-      <c r="K4">
-        <v>686</v>
-      </c>
-      <c r="L4" s="10">
-        <f>AVERAGE(J4:K4)</f>
-        <v>686</v>
-      </c>
-      <c r="M4">
-        <v>685</v>
-      </c>
-      <c r="N4">
-        <v>685</v>
-      </c>
-      <c r="O4">
-        <v>685</v>
-      </c>
-      <c r="P4">
-        <v>685</v>
-      </c>
-      <c r="Q4" s="10">
-        <f>AVERAGE(M4:P4)</f>
-        <v>685</v>
-      </c>
-      <c r="S4" s="13">
-        <f>(I4+L4+Q4)/3</f>
-        <v>689</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5">
-        <v>642</v>
-      </c>
-      <c r="F5">
-        <v>641</v>
-      </c>
-      <c r="G5">
-        <v>641</v>
-      </c>
-      <c r="H5">
-        <v>642</v>
-      </c>
-      <c r="I5" s="10">
-        <f t="shared" ref="I5:I7" si="0">AVERAGE(E5:H5)</f>
-        <v>641.5</v>
-      </c>
-      <c r="J5">
-        <v>629</v>
-      </c>
-      <c r="K5">
-        <v>628</v>
-      </c>
-      <c r="L5" s="10">
-        <f t="shared" ref="L5:L7" si="1">AVERAGE(J5:K5)</f>
-        <v>628.5</v>
-      </c>
-      <c r="M5">
-        <v>628</v>
-      </c>
-      <c r="N5">
-        <v>628</v>
-      </c>
-      <c r="O5">
-        <v>628</v>
-      </c>
-      <c r="P5">
-        <v>628</v>
-      </c>
-      <c r="Q5" s="10">
-        <f t="shared" ref="Q5:Q7" si="2">AVERAGE(M5:P5)</f>
-        <v>628</v>
-      </c>
-      <c r="S5" s="13">
-        <f t="shared" ref="S5:S7" si="3">(I5+L5+Q5)/3</f>
-        <v>632.66666666666663</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6">
-        <v>796</v>
-      </c>
-      <c r="F6">
-        <v>796</v>
-      </c>
-      <c r="G6">
-        <v>796</v>
-      </c>
-      <c r="H6">
-        <v>796</v>
-      </c>
-      <c r="I6" s="10">
-        <f t="shared" si="0"/>
-        <v>796</v>
-      </c>
-      <c r="J6">
-        <v>808</v>
-      </c>
-      <c r="K6">
-        <v>807</v>
-      </c>
-      <c r="L6" s="10">
-        <f t="shared" si="1"/>
-        <v>807.5</v>
-      </c>
-      <c r="M6">
-        <v>806</v>
-      </c>
-      <c r="N6">
-        <v>806</v>
-      </c>
-      <c r="O6">
-        <v>807</v>
-      </c>
-      <c r="P6">
-        <v>807</v>
-      </c>
-      <c r="Q6" s="10">
-        <f t="shared" si="2"/>
-        <v>806.5</v>
-      </c>
-      <c r="S6" s="13">
-        <f t="shared" si="3"/>
-        <v>803.33333333333337</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7">
-        <v>64</v>
-      </c>
-      <c r="F7">
-        <v>64</v>
-      </c>
-      <c r="G7">
-        <v>64</v>
-      </c>
-      <c r="H7">
-        <v>64</v>
-      </c>
-      <c r="I7" s="10">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="J7">
-        <v>93</v>
-      </c>
-      <c r="K7">
-        <v>93</v>
-      </c>
-      <c r="L7" s="10">
-        <f t="shared" si="1"/>
-        <v>93</v>
-      </c>
-      <c r="M7">
-        <v>89</v>
-      </c>
-      <c r="N7">
-        <v>89</v>
-      </c>
-      <c r="O7">
-        <v>89</v>
-      </c>
-      <c r="P7">
-        <v>89</v>
-      </c>
-      <c r="Q7" s="10">
-        <f t="shared" si="2"/>
-        <v>89</v>
-      </c>
-      <c r="S7" s="13">
-        <f t="shared" si="3"/>
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14">
-        <v>112</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Files/calculations.xlsx
+++ b/Files/calculations.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Pernata\UNIVER\M1_Diderot\M1_Projet_Long\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Pernata\UNIVER\M1_Diderot\M1_Projet_Long\bragina-plong-2022\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="5250" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="5250" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Solenoids" sheetId="2" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="114">
   <si>
     <t>Raspberry</t>
   </si>
@@ -396,6 +396,42 @@
   </si>
   <si>
     <t>Water max/soil</t>
+  </si>
+  <si>
+    <t>exp1</t>
+  </si>
+  <si>
+    <t>exp2</t>
+  </si>
+  <si>
+    <t>sens0</t>
+  </si>
+  <si>
+    <t>sens1</t>
+  </si>
+  <si>
+    <t>sens2</t>
+  </si>
+  <si>
+    <t>sens3</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>min/max</t>
+  </si>
+  <si>
+    <t>Min(100%hum)</t>
+  </si>
+  <si>
+    <t>Max(0%hum)</t>
+  </si>
+  <si>
+    <t>Debit(ml/s)</t>
   </si>
 </sst>
 </file>
@@ -406,7 +442,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -487,6 +523,32 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0033CC"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -681,7 +743,7 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -785,6 +847,19 @@
     <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% — акцент1" xfId="3" builtinId="30"/>
@@ -797,9 +872,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0033CC"/>
       <color rgb="FF273C18"/>
       <color rgb="FF09D109"/>
-      <color rgb="FF0033CC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3720,16 +3795,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>447674</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4017,7 +4092,7 @@
   <dimension ref="A2:R29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5064,17 +5139,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:X16"/>
+  <dimension ref="A2:X25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
     <col min="2" max="2" width="8.140625" customWidth="1"/>
-    <col min="3" max="3" width="3.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" style="19" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" style="19" customWidth="1"/>
     <col min="6" max="6" width="19" style="19" customWidth="1"/>
@@ -5093,205 +5168,242 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D2" s="57" t="s">
-        <v>100</v>
-      </c>
       <c r="E2" s="57">
         <f>0*Solenoids!Q8</f>
         <v>0</v>
       </c>
       <c r="G2" s="58">
-        <f>G6/(Solenoids!Q8/10)</f>
+        <f>G8/(Solenoids!Q8/10)</f>
+        <v>2.4417738960375135</v>
+      </c>
+      <c r="I2" s="58">
+        <f>I8/(Solenoids!Q8/10)</f>
+        <v>4.883547792075027</v>
+      </c>
+      <c r="K2" s="58">
+        <f>K8/(Solenoids!Q8/10)</f>
+        <v>4.883547792075027</v>
+      </c>
+      <c r="M2" s="58">
+        <f>M8/(Solenoids!Q8/10)</f>
+        <v>4.883547792075027</v>
+      </c>
+      <c r="O2" s="58">
+        <f>O8/(Solenoids!Q8/10)</f>
+        <v>7.32532168811254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D3" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="57">
+        <f>0*Solenoids!Q8</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="58">
+        <f>G7/(Solenoids!Q8/10)</f>
         <v>3.4666311087405819</v>
       </c>
-      <c r="I2" s="58">
-        <f>I6/(Solenoids!Q8/10)</f>
+      <c r="I3" s="58">
+        <f>I7/(Solenoids!Q8/10)</f>
         <v>6.9332622174811638</v>
       </c>
-      <c r="K2" s="58">
-        <f>K6/(Solenoids!Q8/10)</f>
+      <c r="K3" s="58">
+        <f>K7/(Solenoids!Q8/10)</f>
         <v>6.9332622174811638</v>
       </c>
-      <c r="M2" s="58">
-        <f>M6/(Solenoids!Q8/10)</f>
+      <c r="M3" s="58">
+        <f>M7/(Solenoids!Q8/10)</f>
         <v>6.9332622174811638</v>
       </c>
-      <c r="O2" s="58">
-        <f>O6/(Solenoids!Q8/10)</f>
+      <c r="O3" s="58">
+        <f>O7/(Solenoids!Q8/10)</f>
         <v>10.399893326221747</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="G3" s="54" t="s">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G4" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="H3" s="55"/>
-      <c r="I3" s="54" t="s">
+      <c r="H4" s="55"/>
+      <c r="I4" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="J3" s="55"/>
-      <c r="K3" s="54" t="s">
+      <c r="J4" s="55"/>
+      <c r="K4" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="L3" s="55"/>
-      <c r="M3" s="54" t="s">
+      <c r="L4" s="55"/>
+      <c r="M4" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="N3" s="55"/>
-      <c r="O3" s="54" t="s">
+      <c r="N4" s="55"/>
+      <c r="O4" s="54" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="10">
-        <v>566</v>
-      </c>
-      <c r="D4" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="F4" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="G4" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="H4" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="I4" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="J4" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="K4" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="L4" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="M4" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="N4" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="O4" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="P4" s="50" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="10">
+        <v>566</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="I5" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="J5" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="K5" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="L5" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="M5" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="N5" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="O5" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="P5" s="50" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B6" s="10">
         <v>619</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="20"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D6" s="52">
+      <c r="D6" s="52"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="20"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="52">
         <f>641-137</f>
         <v>504</v>
       </c>
-      <c r="E6" s="18">
-        <f>D6*0*B7</f>
+      <c r="E7" s="18">
+        <f>D7*0*B8</f>
         <v>0</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="43">
-        <f>D6*B7*10/100</f>
+      <c r="F7" s="20"/>
+      <c r="G7" s="43">
+        <f>D7*B8*10/100</f>
         <v>55.119434628975256</v>
       </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="43">
-        <f>G6*2</f>
+      <c r="H7" s="20"/>
+      <c r="I7" s="43">
+        <f>G7*2</f>
         <v>110.23886925795051</v>
       </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="43">
-        <f>G6*2</f>
+      <c r="J7" s="20"/>
+      <c r="K7" s="43">
+        <f>G7*2</f>
         <v>110.23886925795051</v>
       </c>
-      <c r="L6" s="20"/>
-      <c r="M6" s="43">
-        <f>G6*2</f>
+      <c r="L7" s="20"/>
+      <c r="M7" s="43">
+        <f>G7*2</f>
         <v>110.23886925795051</v>
       </c>
-      <c r="N6" s="23"/>
-      <c r="O6" s="43">
-        <f>G6*3</f>
+      <c r="N7" s="23"/>
+      <c r="O7" s="43">
+        <f>G7*3</f>
         <v>165.35830388692577</v>
       </c>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="56">
-        <f>O6+M6+K6+I6+G6</f>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="56">
+        <f>O7+M7+K7+I7+G7</f>
         <v>551.1943462897525</v>
       </c>
-      <c r="V6" s="10"/>
-      <c r="X6" s="13"/>
-    </row>
-    <row r="7" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="59" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="60">
-        <f>B5/B4</f>
-        <v>1.0936395759717314</v>
-      </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="22"/>
       <c r="V7" s="10"/>
       <c r="X7" s="13"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D8" s="52"/>
-      <c r="E8" s="18"/>
+    <row r="8" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="60">
+        <f>B6/B5</f>
+        <v>1.0936395759717314</v>
+      </c>
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="52">
+        <v>355</v>
+      </c>
+      <c r="E8" s="18">
+        <f>D8*0*B9</f>
+        <v>0</v>
+      </c>
       <c r="F8" s="20"/>
-      <c r="G8" s="18"/>
+      <c r="G8" s="43">
+        <f>D8*B8*10/100</f>
+        <v>38.824204946996467</v>
+      </c>
       <c r="H8" s="20"/>
-      <c r="I8" s="18"/>
+      <c r="I8" s="43">
+        <f>G8*2</f>
+        <v>77.648409893992934</v>
+      </c>
       <c r="J8" s="20"/>
-      <c r="K8" s="18"/>
+      <c r="K8" s="43">
+        <f>G8*2</f>
+        <v>77.648409893992934</v>
+      </c>
       <c r="L8" s="20"/>
-      <c r="M8" s="21"/>
+      <c r="M8" s="43">
+        <f>G8*2</f>
+        <v>77.648409893992934</v>
+      </c>
       <c r="N8" s="23"/>
-      <c r="O8" s="18"/>
+      <c r="O8" s="43">
+        <f>G8*3</f>
+        <v>116.47261484098939</v>
+      </c>
       <c r="P8" s="20"/>
-      <c r="Q8" s="22"/>
+      <c r="Q8" s="56">
+        <f>O8+M8+K8+I8+G8</f>
+        <v>388.24204946996468</v>
+      </c>
       <c r="V8" s="10"/>
       <c r="X8" s="13"/>
     </row>
@@ -5323,10 +5435,13 @@
       <c r="J10" s="20"/>
       <c r="K10" s="18"/>
       <c r="L10" s="20"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="20"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="23"/>
       <c r="O10" s="18"/>
       <c r="P10" s="20"/>
+      <c r="Q10" s="22"/>
+      <c r="V10" s="10"/>
+      <c r="X10" s="13"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D11" s="52"/>
@@ -5374,28 +5489,130 @@
       <c r="P13" s="20"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D14" s="53"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="48"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="N16" s="19" t="s">
+      <c r="D14" s="52"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="20"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D15" s="53"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="48"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="N17" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="O16" s="44">
-        <f>D6*B7</f>
+      <c r="O17" s="44">
+        <f>D7*B8</f>
         <v>551.19434628975262</v>
       </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O18" s="44">
+        <f>D8*B8</f>
+        <v>388.24204946996468</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C19" s="19"/>
+      <c r="D19" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="64" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C20" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="19">
+        <v>693</v>
+      </c>
+      <c r="E20" s="19">
+        <v>628</v>
+      </c>
+      <c r="F20" s="19">
+        <v>810</v>
+      </c>
+      <c r="G20" s="19">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C21" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="19">
+        <v>290</v>
+      </c>
+      <c r="E21" s="19">
+        <v>293</v>
+      </c>
+      <c r="F21" s="19">
+        <v>375</v>
+      </c>
+      <c r="G21" s="19">
+        <v>321</v>
+      </c>
+      <c r="I21" s="63"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C22" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="65">
+        <f>D21/D20</f>
+        <v>0.41847041847041849</v>
+      </c>
+      <c r="E22" s="65">
+        <f t="shared" ref="E22:G22" si="0">E21/E20</f>
+        <v>0.46656050955414013</v>
+      </c>
+      <c r="F22" s="65">
+        <f t="shared" si="0"/>
+        <v>0.46296296296296297</v>
+      </c>
+      <c r="G22" s="65">
+        <f t="shared" si="0"/>
+        <v>0.46187050359712228</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C23" s="19"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D24" s="61"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="F25" s="62"/>
+      <c r="J25" s="62"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5405,10 +5622,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E22"/>
+  <dimension ref="B3:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5419,7 +5636,7 @@
     <col min="6" max="6" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="14" t="s">
         <v>35</v>
       </c>
@@ -5432,22 +5649,25 @@
       <c r="E3" s="14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+      <c r="F3" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="11">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="11">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="4">
         <v>2</v>
@@ -5459,7 +5679,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="4">
         <v>3</v>
@@ -5471,7 +5691,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" s="4">
         <v>4</v>
@@ -5483,63 +5703,79 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="11">
         <v>5</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="68">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+      <c r="F8" s="69">
+        <f>Solenoids!F10</f>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="11">
         <v>6</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="68">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+      <c r="F9" s="69">
+        <f>Solenoids!E10</f>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="11">
         <v>7</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="68">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
+      <c r="F10" s="69">
+        <f>Solenoids!D10</f>
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="11">
         <v>8</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="68">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F11" s="69">
+        <f>Solenoids!C10</f>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>35</v>
       </c>
@@ -5547,67 +5783,90 @@
         <v>38</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="68">
         <v>0</v>
       </c>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
+      <c r="D15" s="68">
+        <v>290</v>
+      </c>
+      <c r="E15" s="69">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="68">
         <v>1</v>
       </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
+      <c r="D16" s="68">
+        <v>293</v>
+      </c>
+      <c r="E16" s="69">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="68">
         <v>2</v>
       </c>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
+      <c r="D17" s="68">
+        <v>375</v>
+      </c>
+      <c r="E17" s="69">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="68">
         <v>3</v>
       </c>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="68">
+        <v>321</v>
+      </c>
+      <c r="E18" s="69">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
       <c r="C19" s="4">
         <v>4</v>
       </c>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="C20" s="4">
         <v>5</v>
       </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
       <c r="C21" s="4">
         <v>6</v>
       </c>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="C22" s="4">
         <v>7</v>

--- a/Files/calculations.xlsx
+++ b/Files/calculations.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Pernata\UNIVER\M1_Diderot\M1_Projet_Long\bragina-plong-2022\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Pernata\UNIVER\M1_Diderot\M1_Projet_Long\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="5250" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="5250" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Solenoids" sheetId="2" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="102">
   <si>
     <t>Raspberry</t>
   </si>
@@ -396,42 +396,6 @@
   </si>
   <si>
     <t>Water max/soil</t>
-  </si>
-  <si>
-    <t>exp1</t>
-  </si>
-  <si>
-    <t>exp2</t>
-  </si>
-  <si>
-    <t>sens0</t>
-  </si>
-  <si>
-    <t>sens1</t>
-  </si>
-  <si>
-    <t>sens2</t>
-  </si>
-  <si>
-    <t>sens3</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>min/max</t>
-  </si>
-  <si>
-    <t>Min(100%hum)</t>
-  </si>
-  <si>
-    <t>Max(0%hum)</t>
-  </si>
-  <si>
-    <t>Debit(ml/s)</t>
   </si>
 </sst>
 </file>
@@ -442,7 +406,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -523,32 +487,6 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF0033CC"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -743,7 +681,7 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -847,19 +785,6 @@
     <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% — акцент1" xfId="3" builtinId="30"/>
@@ -872,9 +797,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF0033CC"/>
       <color rgb="FF273C18"/>
       <color rgb="FF09D109"/>
+      <color rgb="FF0033CC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3795,16 +3720,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>638174</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4092,7 +4017,7 @@
   <dimension ref="A2:R29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5139,17 +5064,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:X25"/>
+  <dimension ref="A2:X16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
     <col min="2" max="2" width="8.140625" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="3.5703125" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" style="19" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" style="19" customWidth="1"/>
     <col min="6" max="6" width="19" style="19" customWidth="1"/>
@@ -5168,242 +5093,205 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D2" s="57" t="s">
+        <v>100</v>
+      </c>
       <c r="E2" s="57">
         <f>0*Solenoids!Q8</f>
         <v>0</v>
       </c>
       <c r="G2" s="58">
-        <f>G8/(Solenoids!Q8/10)</f>
-        <v>2.4417738960375135</v>
+        <f>G6/(Solenoids!Q8/10)</f>
+        <v>3.4666311087405819</v>
       </c>
       <c r="I2" s="58">
-        <f>I8/(Solenoids!Q8/10)</f>
-        <v>4.883547792075027</v>
+        <f>I6/(Solenoids!Q8/10)</f>
+        <v>6.9332622174811638</v>
       </c>
       <c r="K2" s="58">
-        <f>K8/(Solenoids!Q8/10)</f>
-        <v>4.883547792075027</v>
+        <f>K6/(Solenoids!Q8/10)</f>
+        <v>6.9332622174811638</v>
       </c>
       <c r="M2" s="58">
-        <f>M8/(Solenoids!Q8/10)</f>
-        <v>4.883547792075027</v>
+        <f>M6/(Solenoids!Q8/10)</f>
+        <v>6.9332622174811638</v>
       </c>
       <c r="O2" s="58">
-        <f>O8/(Solenoids!Q8/10)</f>
-        <v>7.32532168811254</v>
+        <f>O6/(Solenoids!Q8/10)</f>
+        <v>10.399893326221747</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D3" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" s="57">
-        <f>0*Solenoids!Q8</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="58">
-        <f>G7/(Solenoids!Q8/10)</f>
-        <v>3.4666311087405819</v>
-      </c>
-      <c r="I3" s="58">
-        <f>I7/(Solenoids!Q8/10)</f>
-        <v>6.9332622174811638</v>
-      </c>
-      <c r="K3" s="58">
-        <f>K7/(Solenoids!Q8/10)</f>
-        <v>6.9332622174811638</v>
-      </c>
-      <c r="M3" s="58">
-        <f>M7/(Solenoids!Q8/10)</f>
-        <v>6.9332622174811638</v>
-      </c>
-      <c r="O3" s="58">
-        <f>O7/(Solenoids!Q8/10)</f>
-        <v>10.399893326221747</v>
+      <c r="G3" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" s="55"/>
+      <c r="I3" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" s="55"/>
+      <c r="K3" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="L3" s="55"/>
+      <c r="M3" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="N3" s="55"/>
+      <c r="O3" s="54" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="G4" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="J4" s="55"/>
-      <c r="K4" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="L4" s="55"/>
-      <c r="M4" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="N4" s="55"/>
-      <c r="O4" s="54" t="s">
-        <v>98</v>
+      <c r="A4" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="10">
+        <v>566</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="L4" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="M4" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="N4" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="O4" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="P4" s="50" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B5" s="10">
-        <v>566</v>
-      </c>
-      <c r="D5" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="F5" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="G5" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="H5" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="I5" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="J5" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="K5" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="L5" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="M5" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="N5" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="O5" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="P5" s="50" t="s">
-        <v>93</v>
-      </c>
+        <v>619</v>
+      </c>
+      <c r="D5" s="52"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="20"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="10">
-        <v>619</v>
-      </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="20"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="52">
+      <c r="D6" s="52">
         <f>641-137</f>
         <v>504</v>
       </c>
-      <c r="E7" s="18">
-        <f>D7*0*B8</f>
+      <c r="E6" s="18">
+        <f>D6*0*B7</f>
         <v>0</v>
       </c>
+      <c r="F6" s="20"/>
+      <c r="G6" s="43">
+        <f>D6*B7*10/100</f>
+        <v>55.119434628975256</v>
+      </c>
+      <c r="H6" s="20"/>
+      <c r="I6" s="43">
+        <f>G6*2</f>
+        <v>110.23886925795051</v>
+      </c>
+      <c r="J6" s="20"/>
+      <c r="K6" s="43">
+        <f>G6*2</f>
+        <v>110.23886925795051</v>
+      </c>
+      <c r="L6" s="20"/>
+      <c r="M6" s="43">
+        <f>G6*2</f>
+        <v>110.23886925795051</v>
+      </c>
+      <c r="N6" s="23"/>
+      <c r="O6" s="43">
+        <f>G6*3</f>
+        <v>165.35830388692577</v>
+      </c>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="56">
+        <f>O6+M6+K6+I6+G6</f>
+        <v>551.1943462897525</v>
+      </c>
+      <c r="V6" s="10"/>
+      <c r="X6" s="13"/>
+    </row>
+    <row r="7" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="60">
+        <f>B5/B4</f>
+        <v>1.0936395759717314</v>
+      </c>
+      <c r="D7" s="52"/>
+      <c r="E7" s="18"/>
       <c r="F7" s="20"/>
-      <c r="G7" s="43">
-        <f>D7*B8*10/100</f>
-        <v>55.119434628975256</v>
-      </c>
+      <c r="G7" s="18"/>
       <c r="H7" s="20"/>
-      <c r="I7" s="43">
-        <f>G7*2</f>
-        <v>110.23886925795051</v>
-      </c>
+      <c r="I7" s="18"/>
       <c r="J7" s="20"/>
-      <c r="K7" s="43">
-        <f>G7*2</f>
-        <v>110.23886925795051</v>
-      </c>
+      <c r="K7" s="18"/>
       <c r="L7" s="20"/>
-      <c r="M7" s="43">
-        <f>G7*2</f>
-        <v>110.23886925795051</v>
-      </c>
+      <c r="M7" s="21"/>
       <c r="N7" s="23"/>
-      <c r="O7" s="43">
-        <f>G7*3</f>
-        <v>165.35830388692577</v>
-      </c>
+      <c r="O7" s="18"/>
       <c r="P7" s="20"/>
-      <c r="Q7" s="56">
-        <f>O7+M7+K7+I7+G7</f>
-        <v>551.1943462897525</v>
-      </c>
+      <c r="Q7" s="22"/>
       <c r="V7" s="10"/>
       <c r="X7" s="13"/>
     </row>
-    <row r="8" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="59" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="60">
-        <f>B6/B5</f>
-        <v>1.0936395759717314</v>
-      </c>
-      <c r="C8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="52">
-        <v>355</v>
-      </c>
-      <c r="E8" s="18">
-        <f>D8*0*B9</f>
-        <v>0</v>
-      </c>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D8" s="52"/>
+      <c r="E8" s="18"/>
       <c r="F8" s="20"/>
-      <c r="G8" s="43">
-        <f>D8*B8*10/100</f>
-        <v>38.824204946996467</v>
-      </c>
+      <c r="G8" s="18"/>
       <c r="H8" s="20"/>
-      <c r="I8" s="43">
-        <f>G8*2</f>
-        <v>77.648409893992934</v>
-      </c>
+      <c r="I8" s="18"/>
       <c r="J8" s="20"/>
-      <c r="K8" s="43">
-        <f>G8*2</f>
-        <v>77.648409893992934</v>
-      </c>
+      <c r="K8" s="18"/>
       <c r="L8" s="20"/>
-      <c r="M8" s="43">
-        <f>G8*2</f>
-        <v>77.648409893992934</v>
-      </c>
+      <c r="M8" s="21"/>
       <c r="N8" s="23"/>
-      <c r="O8" s="43">
-        <f>G8*3</f>
-        <v>116.47261484098939</v>
-      </c>
+      <c r="O8" s="18"/>
       <c r="P8" s="20"/>
-      <c r="Q8" s="56">
-        <f>O8+M8+K8+I8+G8</f>
-        <v>388.24204946996468</v>
-      </c>
+      <c r="Q8" s="22"/>
       <c r="V8" s="10"/>
       <c r="X8" s="13"/>
     </row>
@@ -5435,13 +5323,10 @@
       <c r="J10" s="20"/>
       <c r="K10" s="18"/>
       <c r="L10" s="20"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="23"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="20"/>
       <c r="O10" s="18"/>
       <c r="P10" s="20"/>
-      <c r="Q10" s="22"/>
-      <c r="V10" s="10"/>
-      <c r="X10" s="13"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D11" s="52"/>
@@ -5489,130 +5374,28 @@
       <c r="P13" s="20"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D14" s="52"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="20"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D15" s="53"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="48"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="N17" s="19" t="s">
+      <c r="D14" s="53"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="48"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N16" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="O17" s="44">
-        <f>D7*B8</f>
+      <c r="O16" s="44">
+        <f>D6*B7</f>
         <v>551.19434628975262</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="O18" s="44">
-        <f>D8*B8</f>
-        <v>388.24204946996468</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C19" s="19"/>
-      <c r="D19" s="64" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19" s="64" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="64" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="64" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C20" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" s="19">
-        <v>693</v>
-      </c>
-      <c r="E20" s="19">
-        <v>628</v>
-      </c>
-      <c r="F20" s="19">
-        <v>810</v>
-      </c>
-      <c r="G20" s="19">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="67" t="s">
-        <v>109</v>
-      </c>
-      <c r="D21" s="19">
-        <v>290</v>
-      </c>
-      <c r="E21" s="19">
-        <v>293</v>
-      </c>
-      <c r="F21" s="19">
-        <v>375</v>
-      </c>
-      <c r="G21" s="19">
-        <v>321</v>
-      </c>
-      <c r="I21" s="63"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C22" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="D22" s="65">
-        <f>D21/D20</f>
-        <v>0.41847041847041849</v>
-      </c>
-      <c r="E22" s="65">
-        <f t="shared" ref="E22:G22" si="0">E21/E20</f>
-        <v>0.46656050955414013</v>
-      </c>
-      <c r="F22" s="65">
-        <f t="shared" si="0"/>
-        <v>0.46296296296296297</v>
-      </c>
-      <c r="G22" s="65">
-        <f t="shared" si="0"/>
-        <v>0.46187050359712228</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C23" s="19"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D24" s="61"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="F25" s="62"/>
-      <c r="J25" s="62"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5622,10 +5405,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F22"/>
+  <dimension ref="B3:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5636,7 +5419,7 @@
     <col min="6" max="6" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="14" t="s">
         <v>35</v>
       </c>
@@ -5649,25 +5432,22 @@
       <c r="E3" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="4">
         <v>1</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="4">
         <v>2</v>
@@ -5679,7 +5459,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="4">
         <v>3</v>
@@ -5691,7 +5471,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" s="4">
         <v>4</v>
@@ -5703,79 +5483,63 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="68" t="s">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="4">
         <v>5</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="68">
+      <c r="E8" s="4">
         <v>14</v>
       </c>
-      <c r="F8" s="69">
-        <f>Solenoids!F10</f>
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="68" t="s">
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="4">
         <v>6</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="68">
+      <c r="E9" s="4">
         <v>22</v>
       </c>
-      <c r="F9" s="69">
-        <f>Solenoids!E10</f>
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="68" t="s">
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="4">
         <v>7</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="68">
+      <c r="E10" s="4">
         <v>27</v>
       </c>
-      <c r="F10" s="69">
-        <f>Solenoids!D10</f>
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="68" t="s">
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="4">
         <v>8</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="68">
+      <c r="E11" s="4">
         <v>17</v>
       </c>
-      <c r="F11" s="69">
-        <f>Solenoids!C10</f>
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>35</v>
       </c>
@@ -5783,90 +5547,67 @@
         <v>38</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="68" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="68">
+      <c r="C15" s="4">
         <v>0</v>
       </c>
-      <c r="D15" s="68">
-        <v>290</v>
-      </c>
-      <c r="E15" s="69">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="68" t="s">
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="68">
+      <c r="C16" s="4">
         <v>1</v>
       </c>
-      <c r="D16" s="68">
-        <v>293</v>
-      </c>
-      <c r="E16" s="69">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="68" t="s">
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="68">
+      <c r="C17" s="4">
         <v>2</v>
       </c>
-      <c r="D17" s="68">
-        <v>375</v>
-      </c>
-      <c r="E17" s="69">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="68" t="s">
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="68">
+      <c r="C18" s="4">
         <v>3</v>
       </c>
-      <c r="D18" s="68">
-        <v>321</v>
-      </c>
-      <c r="E18" s="69">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
       <c r="C19" s="4">
         <v>4</v>
       </c>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="C20" s="4">
         <v>5</v>
       </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
       <c r="C21" s="4">
         <v>6</v>
       </c>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="C22" s="4">
         <v>7</v>

--- a/Files/calculations.xlsx
+++ b/Files/calculations.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Pernata\UNIVER\M1_Diderot\M1_Projet_Long\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Pernata\UNIVER\M1_Diderot\M1_Projet_Long\bragina-plong-2022\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="5250" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="5250"/>
   </bookViews>
   <sheets>
     <sheet name="Solenoids" sheetId="2" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="117">
   <si>
     <t>Raspberry</t>
   </si>
@@ -396,17 +396,63 @@
   </si>
   <si>
     <t>Water max/soil</t>
+  </si>
+  <si>
+    <t>exp1</t>
+  </si>
+  <si>
+    <t>exp2</t>
+  </si>
+  <si>
+    <t>sens0</t>
+  </si>
+  <si>
+    <t>sens1</t>
+  </si>
+  <si>
+    <t>sens2</t>
+  </si>
+  <si>
+    <t>sens3</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>min/max</t>
+  </si>
+  <si>
+    <t>Min(100%hum)</t>
+  </si>
+  <si>
+    <t>Max(0%hum)</t>
+  </si>
+  <si>
+    <t>Debit(ml/s)</t>
+  </si>
+  <si>
+    <t>0.1 ml/s Important ou négligeable?</t>
+  </si>
+  <si>
+    <t>+1 opened'</t>
+  </si>
+  <si>
+    <t>+3 opened'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -487,6 +533,32 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0033CC"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -681,7 +753,7 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -785,6 +857,22 @@
     <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% — акцент1" xfId="3" builtinId="30"/>
@@ -797,9 +885,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0033CC"/>
       <color rgb="FF273C18"/>
       <color rgb="FF09D109"/>
-      <color rgb="FF0033CC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3720,16 +3808,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>447674</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4014,16 +4102,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R29"/>
+  <dimension ref="A2:R37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.5703125" customWidth="1"/>
     <col min="2" max="2" width="32.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.5703125" customWidth="1"/>
     <col min="14" max="14" width="17.5703125" customWidth="1"/>
@@ -5055,6 +5144,71 @@
         <v>-5.4</v>
       </c>
     </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B32" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="70">
+        <f>0.1/C10</f>
+        <v>2.1739130434782612E-2</v>
+      </c>
+      <c r="C33" s="72">
+        <f>B33*3</f>
+        <v>6.5217391304347838E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="70">
+        <f>0.1/D10</f>
+        <v>2.5641025641025644E-2</v>
+      </c>
+      <c r="C34" s="72">
+        <f t="shared" ref="C34:C36" si="21">B34*3</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="70">
+        <f>0.1/E10</f>
+        <v>2.777777777777778E-2</v>
+      </c>
+      <c r="C35" s="72">
+        <f t="shared" si="21"/>
+        <v>8.3333333333333343E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="70">
+        <f>0.1/F10</f>
+        <v>2.3809523809523808E-2</v>
+      </c>
+      <c r="C36" s="72">
+        <f t="shared" si="21"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="71" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5064,17 +5218,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:X16"/>
+  <dimension ref="A2:X25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
     <col min="2" max="2" width="8.140625" customWidth="1"/>
-    <col min="3" max="3" width="3.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" style="19" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" style="19" customWidth="1"/>
     <col min="6" max="6" width="19" style="19" customWidth="1"/>
@@ -5093,205 +5247,242 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D2" s="57" t="s">
-        <v>100</v>
-      </c>
       <c r="E2" s="57">
         <f>0*Solenoids!Q8</f>
         <v>0</v>
       </c>
       <c r="G2" s="58">
-        <f>G6/(Solenoids!Q8/10)</f>
+        <f>G8/(Solenoids!Q8/10)</f>
+        <v>2.4417738960375135</v>
+      </c>
+      <c r="I2" s="58">
+        <f>I8/(Solenoids!Q8/10)</f>
+        <v>4.883547792075027</v>
+      </c>
+      <c r="K2" s="58">
+        <f>K8/(Solenoids!Q8/10)</f>
+        <v>4.883547792075027</v>
+      </c>
+      <c r="M2" s="58">
+        <f>M8/(Solenoids!Q8/10)</f>
+        <v>4.883547792075027</v>
+      </c>
+      <c r="O2" s="58">
+        <f>O8/(Solenoids!Q8/10)</f>
+        <v>7.32532168811254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D3" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="57">
+        <f>0*Solenoids!Q8</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="58">
+        <f>G7/(Solenoids!Q8/10)</f>
         <v>3.4666311087405819</v>
       </c>
-      <c r="I2" s="58">
-        <f>I6/(Solenoids!Q8/10)</f>
+      <c r="I3" s="58">
+        <f>I7/(Solenoids!Q8/10)</f>
         <v>6.9332622174811638</v>
       </c>
-      <c r="K2" s="58">
-        <f>K6/(Solenoids!Q8/10)</f>
+      <c r="K3" s="58">
+        <f>K7/(Solenoids!Q8/10)</f>
         <v>6.9332622174811638</v>
       </c>
-      <c r="M2" s="58">
-        <f>M6/(Solenoids!Q8/10)</f>
+      <c r="M3" s="58">
+        <f>M7/(Solenoids!Q8/10)</f>
         <v>6.9332622174811638</v>
       </c>
-      <c r="O2" s="58">
-        <f>O6/(Solenoids!Q8/10)</f>
+      <c r="O3" s="58">
+        <f>O7/(Solenoids!Q8/10)</f>
         <v>10.399893326221747</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="G3" s="54" t="s">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G4" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="H3" s="55"/>
-      <c r="I3" s="54" t="s">
+      <c r="H4" s="55"/>
+      <c r="I4" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="J3" s="55"/>
-      <c r="K3" s="54" t="s">
+      <c r="J4" s="55"/>
+      <c r="K4" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="L3" s="55"/>
-      <c r="M3" s="54" t="s">
+      <c r="L4" s="55"/>
+      <c r="M4" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="N3" s="55"/>
-      <c r="O3" s="54" t="s">
+      <c r="N4" s="55"/>
+      <c r="O4" s="54" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="10">
-        <v>566</v>
-      </c>
-      <c r="D4" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="F4" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="G4" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="H4" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="I4" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="J4" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="K4" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="L4" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="M4" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="N4" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="O4" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="P4" s="50" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="10">
+        <v>566</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="I5" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="J5" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="K5" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="L5" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="M5" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="N5" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="O5" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="P5" s="50" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B6" s="10">
         <v>619</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="20"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D6" s="52">
+      <c r="D6" s="52"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="20"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="52">
         <f>641-137</f>
         <v>504</v>
       </c>
-      <c r="E6" s="18">
-        <f>D6*0*B7</f>
+      <c r="E7" s="18">
+        <f>D7*0*B8</f>
         <v>0</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="43">
-        <f>D6*B7*10/100</f>
+      <c r="F7" s="20"/>
+      <c r="G7" s="43">
+        <f>D7*B8*10/100</f>
         <v>55.119434628975256</v>
       </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="43">
-        <f>G6*2</f>
+      <c r="H7" s="20"/>
+      <c r="I7" s="43">
+        <f>G7*2</f>
         <v>110.23886925795051</v>
       </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="43">
-        <f>G6*2</f>
+      <c r="J7" s="20"/>
+      <c r="K7" s="43">
+        <f>G7*2</f>
         <v>110.23886925795051</v>
       </c>
-      <c r="L6" s="20"/>
-      <c r="M6" s="43">
-        <f>G6*2</f>
+      <c r="L7" s="20"/>
+      <c r="M7" s="43">
+        <f>G7*2</f>
         <v>110.23886925795051</v>
       </c>
-      <c r="N6" s="23"/>
-      <c r="O6" s="43">
-        <f>G6*3</f>
+      <c r="N7" s="23"/>
+      <c r="O7" s="43">
+        <f>G7*3</f>
         <v>165.35830388692577</v>
       </c>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="56">
-        <f>O6+M6+K6+I6+G6</f>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="56">
+        <f>O7+M7+K7+I7+G7</f>
         <v>551.1943462897525</v>
       </c>
-      <c r="V6" s="10"/>
-      <c r="X6" s="13"/>
-    </row>
-    <row r="7" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="59" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="60">
-        <f>B5/B4</f>
-        <v>1.0936395759717314</v>
-      </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="22"/>
       <c r="V7" s="10"/>
       <c r="X7" s="13"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D8" s="52"/>
-      <c r="E8" s="18"/>
+    <row r="8" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="60">
+        <f>B6/B5</f>
+        <v>1.0936395759717314</v>
+      </c>
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="52">
+        <v>355</v>
+      </c>
+      <c r="E8" s="18">
+        <f>D8*0*B9</f>
+        <v>0</v>
+      </c>
       <c r="F8" s="20"/>
-      <c r="G8" s="18"/>
+      <c r="G8" s="43">
+        <f>D8*B8*10/100</f>
+        <v>38.824204946996467</v>
+      </c>
       <c r="H8" s="20"/>
-      <c r="I8" s="18"/>
+      <c r="I8" s="43">
+        <f>G8*2</f>
+        <v>77.648409893992934</v>
+      </c>
       <c r="J8" s="20"/>
-      <c r="K8" s="18"/>
+      <c r="K8" s="43">
+        <f>G8*2</f>
+        <v>77.648409893992934</v>
+      </c>
       <c r="L8" s="20"/>
-      <c r="M8" s="21"/>
+      <c r="M8" s="43">
+        <f>G8*2</f>
+        <v>77.648409893992934</v>
+      </c>
       <c r="N8" s="23"/>
-      <c r="O8" s="18"/>
+      <c r="O8" s="43">
+        <f>G8*3</f>
+        <v>116.47261484098939</v>
+      </c>
       <c r="P8" s="20"/>
-      <c r="Q8" s="22"/>
+      <c r="Q8" s="56">
+        <f>O8+M8+K8+I8+G8</f>
+        <v>388.24204946996468</v>
+      </c>
       <c r="V8" s="10"/>
       <c r="X8" s="13"/>
     </row>
@@ -5323,10 +5514,13 @@
       <c r="J10" s="20"/>
       <c r="K10" s="18"/>
       <c r="L10" s="20"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="20"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="23"/>
       <c r="O10" s="18"/>
       <c r="P10" s="20"/>
+      <c r="Q10" s="22"/>
+      <c r="V10" s="10"/>
+      <c r="X10" s="13"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D11" s="52"/>
@@ -5374,28 +5568,130 @@
       <c r="P13" s="20"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D14" s="53"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="48"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="N16" s="19" t="s">
+      <c r="D14" s="52"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="20"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D15" s="53"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="48"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="N17" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="O16" s="44">
-        <f>D6*B7</f>
+      <c r="O17" s="44">
+        <f>D7*B8</f>
         <v>551.19434628975262</v>
       </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O18" s="44">
+        <f>D8*B8</f>
+        <v>388.24204946996468</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C19" s="19"/>
+      <c r="D19" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="64" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C20" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="19">
+        <v>693</v>
+      </c>
+      <c r="E20" s="19">
+        <v>628</v>
+      </c>
+      <c r="F20" s="19">
+        <v>810</v>
+      </c>
+      <c r="G20" s="19">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C21" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="19">
+        <v>290</v>
+      </c>
+      <c r="E21" s="19">
+        <v>293</v>
+      </c>
+      <c r="F21" s="19">
+        <v>375</v>
+      </c>
+      <c r="G21" s="19">
+        <v>321</v>
+      </c>
+      <c r="I21" s="63"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C22" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="65">
+        <f>D21/D20</f>
+        <v>0.41847041847041849</v>
+      </c>
+      <c r="E22" s="65">
+        <f t="shared" ref="E22:G22" si="0">E21/E20</f>
+        <v>0.46656050955414013</v>
+      </c>
+      <c r="F22" s="65">
+        <f t="shared" si="0"/>
+        <v>0.46296296296296297</v>
+      </c>
+      <c r="G22" s="65">
+        <f t="shared" si="0"/>
+        <v>0.46187050359712228</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C23" s="19"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D24" s="61"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="F25" s="62"/>
+      <c r="J25" s="62"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5405,10 +5701,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E22"/>
+  <dimension ref="B3:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5419,7 +5715,7 @@
     <col min="6" max="6" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="14" t="s">
         <v>35</v>
       </c>
@@ -5432,22 +5728,25 @@
       <c r="E3" s="14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+      <c r="F3" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="11">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="11">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="4">
         <v>2</v>
@@ -5459,7 +5758,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="4">
         <v>3</v>
@@ -5471,7 +5770,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" s="4">
         <v>4</v>
@@ -5483,63 +5782,79 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="11">
         <v>5</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="68">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+      <c r="F8" s="69">
+        <f>Solenoids!F10</f>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="11">
         <v>6</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="68">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+      <c r="F9" s="69">
+        <f>Solenoids!E10</f>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="11">
         <v>7</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="68">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
+      <c r="F10" s="69">
+        <f>Solenoids!D10</f>
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="11">
         <v>8</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="68">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F11" s="69">
+        <f>Solenoids!C10</f>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>35</v>
       </c>
@@ -5547,67 +5862,90 @@
         <v>38</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="68">
         <v>0</v>
       </c>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
+      <c r="D15" s="68">
+        <v>290</v>
+      </c>
+      <c r="E15" s="69">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="68">
         <v>1</v>
       </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
+      <c r="D16" s="68">
+        <v>293</v>
+      </c>
+      <c r="E16" s="69">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="68">
         <v>2</v>
       </c>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
+      <c r="D17" s="68">
+        <v>375</v>
+      </c>
+      <c r="E17" s="69">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="68">
         <v>3</v>
       </c>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="68">
+        <v>321</v>
+      </c>
+      <c r="E18" s="69">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
       <c r="C19" s="4">
         <v>4</v>
       </c>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="C20" s="4">
         <v>5</v>
       </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
       <c r="C21" s="4">
         <v>6</v>
       </c>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="C22" s="4">
         <v>7</v>

--- a/Files/calculations.xlsx
+++ b/Files/calculations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="5250"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="5250" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Solenoids" sheetId="2" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="179">
   <si>
     <t>Raspberry</t>
   </si>
@@ -441,18 +441,205 @@
   </si>
   <si>
     <t>+3 opened'</t>
+  </si>
+  <si>
+    <t>m soil, g</t>
+  </si>
+  <si>
+    <t>r, cm</t>
+  </si>
+  <si>
+    <t>h, cm</t>
+  </si>
+  <si>
+    <t>d, cm</t>
+  </si>
+  <si>
+    <t>S pot,  cm2</t>
+  </si>
+  <si>
+    <t>ρ soil, g/cm3</t>
+  </si>
+  <si>
+    <t>const</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>rain (mm)</t>
+  </si>
+  <si>
+    <t>showers (mm)</t>
+  </si>
+  <si>
+    <t>Whether API</t>
+  </si>
+  <si>
+    <t>= h of added water, cm</t>
+  </si>
+  <si>
+    <t>= V of  added water, cm3</t>
+  </si>
+  <si>
+    <t>V soil, l (=1000 cm3)</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>= actual % hum</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>= need % hum</t>
+  </si>
+  <si>
+    <t>m water for 100% hum, g</t>
+  </si>
+  <si>
+    <t>ml</t>
+  </si>
+  <si>
+    <t>cm3 (=ml)</t>
+  </si>
+  <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t>water, g (=ml)</t>
+  </si>
+  <si>
+    <t>ml/s</t>
+  </si>
+  <si>
+    <t>debit sol, ml/s</t>
+  </si>
+  <si>
+    <t>diff (need to add), ml</t>
+  </si>
+  <si>
+    <t>t  opening of sol, s</t>
+  </si>
+  <si>
+    <t>Arrosage basing on sensors</t>
+  </si>
+  <si>
+    <t>Arrosage basing on model</t>
+  </si>
+  <si>
+    <t>water, %</t>
+  </si>
+  <si>
+    <t>cactus</t>
+  </si>
+  <si>
+    <t>rose</t>
+  </si>
+  <si>
+    <t>petunia</t>
+  </si>
+  <si>
+    <t>per day 40 deg, ml</t>
+  </si>
+  <si>
+    <t>per day 20 deg, ml</t>
+  </si>
+  <si>
+    <t>скорость потребления воды в день растением в зависимости от</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - температуры</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - категории</t>
+  </si>
+  <si>
+    <t>10 deg, ml</t>
+  </si>
+  <si>
+    <t>20 deg, ml</t>
+  </si>
+  <si>
+    <t>30 deg, ml</t>
+  </si>
+  <si>
+    <t>40 deg, ml</t>
+  </si>
+  <si>
+    <t>сколько надо растению</t>
+  </si>
+  <si>
+    <t>воды в день</t>
+  </si>
+  <si>
+    <t>в зависимости от температуры</t>
+  </si>
+  <si>
+    <t>t за прошлый день</t>
+  </si>
+  <si>
+    <t>осадки за прошлый день</t>
+  </si>
+  <si>
+    <t>50 deg, ml</t>
+  </si>
+  <si>
+    <t>need water for this t</t>
+  </si>
+  <si>
+    <t>S, cm2</t>
+  </si>
+  <si>
+    <t>V soil, cm3</t>
+  </si>
+  <si>
+    <t>add to Flowerpot</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>cat1</t>
+  </si>
+  <si>
+    <t>cat2</t>
+  </si>
+  <si>
+    <t>cat3</t>
+  </si>
+  <si>
+    <t>data from DB  -&gt;</t>
+  </si>
+  <si>
+    <t>d, cm2</t>
+  </si>
+  <si>
+    <t>mass, g</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="0.0000000000000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -562,6 +749,45 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -753,7 +979,7 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -857,7 +1083,6 @@
     <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -873,6 +1098,59 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% — акцент1" xfId="3" builtinId="30"/>
@@ -2157,7 +2435,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2608,7 +2885,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4104,8 +4380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33:C36"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5153,11 +5429,11 @@
       <c r="A33" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="70">
+      <c r="B33" s="69">
         <f>0.1/C10</f>
         <v>2.1739130434782612E-2</v>
       </c>
-      <c r="C33" s="72">
+      <c r="C33" s="71">
         <f>B33*3</f>
         <v>6.5217391304347838E-2</v>
       </c>
@@ -5166,11 +5442,11 @@
       <c r="A34" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="70">
+      <c r="B34" s="69">
         <f>0.1/D10</f>
         <v>2.5641025641025644E-2</v>
       </c>
-      <c r="C34" s="72">
+      <c r="C34" s="71">
         <f t="shared" ref="C34:C36" si="21">B34*3</f>
         <v>7.6923076923076927E-2</v>
       </c>
@@ -5179,11 +5455,11 @@
       <c r="A35" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="70">
+      <c r="B35" s="69">
         <f>0.1/E10</f>
         <v>2.777777777777778E-2</v>
       </c>
-      <c r="C35" s="72">
+      <c r="C35" s="71">
         <f t="shared" si="21"/>
         <v>8.3333333333333343E-2</v>
       </c>
@@ -5192,20 +5468,20 @@
       <c r="A36" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="70">
+      <c r="B36" s="69">
         <f>0.1/F10</f>
         <v>2.3809523809523808E-2</v>
       </c>
-      <c r="C36" s="72">
+      <c r="C36" s="71">
         <f t="shared" si="21"/>
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="71" t="s">
+      <c r="B37" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="C37" s="71" t="s">
+      <c r="C37" s="70" t="s">
         <v>116</v>
       </c>
     </row>
@@ -5218,17 +5494,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:X25"/>
+  <dimension ref="A2:X59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" style="19" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" style="19" customWidth="1"/>
     <col min="6" max="6" width="19" style="19" customWidth="1"/>
@@ -5300,6 +5576,10 @@
         <f>O7/(Solenoids!Q8/10)</f>
         <v>10.399893326221747</v>
       </c>
+      <c r="P3" s="81">
+        <f>O3+M3+K3+I3+G3</f>
+        <v>34.666311087405823</v>
+      </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G4" s="54" t="s">
@@ -5597,7 +5877,7 @@
       <c r="O15" s="47"/>
       <c r="P15" s="48"/>
     </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N17" s="19" t="s">
         <v>99</v>
       </c>
@@ -5606,29 +5886,29 @@
         <v>551.19434628975262</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O18" s="44">
         <f>D8*B8</f>
         <v>388.24204946996468</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C19" s="19"/>
-      <c r="D19" s="64" t="s">
+      <c r="D19" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="E19" s="64" t="s">
+      <c r="E19" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="F19" s="64" t="s">
+      <c r="F19" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="G19" s="64" t="s">
+      <c r="G19" s="63" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C20" s="67" t="s">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C20" s="66" t="s">
         <v>108</v>
       </c>
       <c r="D20" s="19">
@@ -5644,8 +5924,8 @@
         <v>695</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="67" t="s">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C21" s="66" t="s">
         <v>109</v>
       </c>
       <c r="D21" s="19">
@@ -5660,38 +5940,644 @@
       <c r="G21" s="19">
         <v>321</v>
       </c>
-      <c r="I21" s="63"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C22" s="66" t="s">
+      <c r="I21" s="62"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C22" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="65">
+      <c r="D22" s="64">
         <f>D21/D20</f>
         <v>0.41847041847041849</v>
       </c>
-      <c r="E22" s="65">
+      <c r="E22" s="64">
         <f t="shared" ref="E22:G22" si="0">E21/E20</f>
         <v>0.46656050955414013</v>
       </c>
-      <c r="F22" s="65">
+      <c r="F22" s="64">
         <f t="shared" si="0"/>
         <v>0.46296296296296297</v>
       </c>
-      <c r="G22" s="65">
+      <c r="G22" s="64">
         <f t="shared" si="0"/>
         <v>0.46187050359712228</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C23" s="19"/>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D24" s="61"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="F25" s="62"/>
-      <c r="J25" s="62"/>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D24" s="76" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="I24" s="76" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D25" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" s="63" t="s">
+        <v>122</v>
+      </c>
+      <c r="G25" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="H25" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="I25" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="J25" s="72" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D26" s="55">
+        <v>3</v>
+      </c>
+      <c r="E26" s="55">
+        <v>1300</v>
+      </c>
+      <c r="F26" s="73">
+        <f>E26/D27</f>
+        <v>0.47272727272727272</v>
+      </c>
+      <c r="G26" s="55">
+        <v>16</v>
+      </c>
+      <c r="H26" s="73">
+        <f>SQRT(D27/(PI()*G26))</f>
+        <v>7.3965878408789969</v>
+      </c>
+      <c r="I26" s="73">
+        <f>H26*2</f>
+        <v>14.793175681757994</v>
+      </c>
+      <c r="J26" s="73">
+        <f>PI()*I26*I26/4</f>
+        <v>171.875</v>
+      </c>
+      <c r="K26" s="73"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D27" s="55">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F28" s="19">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="J28" s="19">
+        <v>10</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="L28" s="75" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I29" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="J29" s="19">
+        <v>15</v>
+      </c>
+      <c r="K29" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="L29" s="75" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D30" s="63"/>
+      <c r="E30" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="H30" s="77" t="s">
+        <v>128</v>
+      </c>
+      <c r="I30" s="77"/>
+      <c r="J30" s="19">
+        <f>(J29+J28)/10</f>
+        <v>2.5</v>
+      </c>
+      <c r="K30" s="19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E31" s="19">
+        <f>E26*1.09</f>
+        <v>1417</v>
+      </c>
+      <c r="H31" s="79" t="s">
+        <v>129</v>
+      </c>
+      <c r="I31" s="79"/>
+      <c r="J31" s="22">
+        <f>PI()*H26*H26*J30</f>
+        <v>429.6875</v>
+      </c>
+      <c r="K31" s="80" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="99" t="s">
+        <v>169</v>
+      </c>
+      <c r="B32" s="100" t="s">
+        <v>168</v>
+      </c>
+      <c r="C32" s="100" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32" s="100" t="s">
+        <v>177</v>
+      </c>
+      <c r="E32" s="101" t="s">
+        <v>119</v>
+      </c>
+      <c r="F32" s="101" t="s">
+        <v>178</v>
+      </c>
+      <c r="H32" s="77"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="61"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="91">
+        <v>1</v>
+      </c>
+      <c r="B33" s="102">
+        <f>6000</f>
+        <v>6000</v>
+      </c>
+      <c r="C33" s="98">
+        <f>PI()*D33*D33/4</f>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="D33" s="61">
+        <v>20</v>
+      </c>
+      <c r="E33" s="74">
+        <f>12*B33/(PI()*D33*D33)</f>
+        <v>57.295779513082323</v>
+      </c>
+      <c r="F33" s="74">
+        <f>B33*F26</f>
+        <v>2836.3636363636365</v>
+      </c>
+      <c r="G33" s="82"/>
+      <c r="H33" s="83" t="s">
+        <v>145</v>
+      </c>
+      <c r="I33" s="84"/>
+      <c r="J33" s="85"/>
+      <c r="K33" s="86"/>
+      <c r="L33" s="84"/>
+      <c r="M33" s="87"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="91">
+        <v>2</v>
+      </c>
+      <c r="B34" s="102">
+        <v>800</v>
+      </c>
+      <c r="C34" s="98">
+        <f t="shared" ref="C34:C36" si="1">PI()*D34*D34/4</f>
+        <v>113.09733552923255</v>
+      </c>
+      <c r="D34" s="19">
+        <v>12</v>
+      </c>
+      <c r="E34" s="74">
+        <f>12*B34/(PI()*D34*D34)</f>
+        <v>21.220659078919379</v>
+      </c>
+      <c r="F34" s="74">
+        <f>B34*F26</f>
+        <v>378.18181818181819</v>
+      </c>
+      <c r="G34" s="18"/>
+      <c r="J34" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="K34" s="55"/>
+      <c r="L34" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="M34" s="20"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="91">
+        <v>3</v>
+      </c>
+      <c r="B35" s="102">
+        <v>1200</v>
+      </c>
+      <c r="C35" s="98">
+        <f t="shared" si="1"/>
+        <v>153.93804002589985</v>
+      </c>
+      <c r="D35" s="61">
+        <v>14</v>
+      </c>
+      <c r="E35" s="74">
+        <f t="shared" ref="E34:E36" si="2">12*B35/(PI()*D35*D35)</f>
+        <v>23.386032454319317</v>
+      </c>
+      <c r="F35" s="74">
+        <f>B35*F26</f>
+        <v>567.27272727272725</v>
+      </c>
+      <c r="G35" s="18"/>
+      <c r="H35" s="78" t="s">
+        <v>133</v>
+      </c>
+      <c r="J35" s="19">
+        <v>20</v>
+      </c>
+      <c r="K35" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="L35" s="19">
+        <f>E31*J35/100</f>
+        <v>283.39999999999998</v>
+      </c>
+      <c r="M35" s="20"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="91">
+        <v>4</v>
+      </c>
+      <c r="B36" s="102">
+        <v>4800</v>
+      </c>
+      <c r="C36" s="98">
+        <f t="shared" si="1"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="D36" s="61">
+        <v>20</v>
+      </c>
+      <c r="E36" s="74">
+        <f t="shared" si="2"/>
+        <v>45.836623610465857</v>
+      </c>
+      <c r="F36" s="74">
+        <f>B36*F26</f>
+        <v>2269.090909090909</v>
+      </c>
+      <c r="G36" s="18"/>
+      <c r="H36" s="78" t="s">
+        <v>135</v>
+      </c>
+      <c r="J36" s="19">
+        <v>50</v>
+      </c>
+      <c r="K36" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="L36" s="19">
+        <f>E31*J36/100</f>
+        <v>708.5</v>
+      </c>
+      <c r="M36" s="20"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G37" s="18"/>
+      <c r="H37" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22">
+        <f>L36-L35</f>
+        <v>425.1</v>
+      </c>
+      <c r="M37" s="20"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F38"/>
+      <c r="G38" s="18"/>
+      <c r="M38" s="20"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D39" s="44"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="L39" s="74">
+        <f>L37/J40</f>
+        <v>92.413043478260889</v>
+      </c>
+      <c r="M39" s="20"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D40" s="44"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="88" t="s">
+        <v>142</v>
+      </c>
+      <c r="I40" s="88"/>
+      <c r="J40" s="88">
+        <f>Solenoids!C10</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K40" s="88" t="s">
+        <v>141</v>
+      </c>
+      <c r="L40" s="88"/>
+      <c r="M40" s="48"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D41" s="44"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D42" s="44"/>
+      <c r="H42" s="79" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D43" s="44"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D44" s="44"/>
+      <c r="G44" s="61" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D45" s="44"/>
+      <c r="G45" s="77" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D46" s="44"/>
+      <c r="G46" s="77" t="s">
+        <v>155</v>
+      </c>
+      <c r="J46" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="K46" s="22" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H47" s="19">
+        <v>1</v>
+      </c>
+      <c r="I47" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="J47" s="1">
+        <f>237/(2*7)</f>
+        <v>16.928571428571427</v>
+      </c>
+      <c r="K47" s="74">
+        <f>237/(4*7)</f>
+        <v>8.4642857142857135</v>
+      </c>
+      <c r="L47" s="89">
+        <f>J47/K47</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H48" s="19">
+        <v>2</v>
+      </c>
+      <c r="I48" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="J48" s="74">
+        <f>4000/7</f>
+        <v>571.42857142857144</v>
+      </c>
+      <c r="K48" s="74">
+        <f>2000/7</f>
+        <v>285.71428571428572</v>
+      </c>
+      <c r="L48" s="89">
+        <f t="shared" ref="L48:L49" si="3">J48/K48</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="H49" s="19">
+        <v>3</v>
+      </c>
+      <c r="I49" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="J49" s="74">
+        <f>5000/7</f>
+        <v>714.28571428571433</v>
+      </c>
+      <c r="K49" s="74">
+        <f>3000/7</f>
+        <v>428.57142857142856</v>
+      </c>
+      <c r="L49" s="89">
+        <f t="shared" si="3"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="N49" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="O49" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="P49" s="19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="I50" s="61"/>
+      <c r="J50" s="74"/>
+      <c r="K50" s="74"/>
+      <c r="L50" s="89"/>
+    </row>
+    <row r="51" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="H51" s="92"/>
+      <c r="I51" s="93" t="s">
+        <v>156</v>
+      </c>
+      <c r="J51" s="94" t="s">
+        <v>157</v>
+      </c>
+      <c r="K51" s="94" t="s">
+        <v>158</v>
+      </c>
+      <c r="L51" s="93" t="s">
+        <v>159</v>
+      </c>
+      <c r="M51" s="93" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="52" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F52" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="H52" s="96" t="s">
+        <v>173</v>
+      </c>
+      <c r="I52" s="95">
+        <f>J52/2</f>
+        <v>4.2321428571428568</v>
+      </c>
+      <c r="J52" s="95">
+        <f>K47</f>
+        <v>8.4642857142857135</v>
+      </c>
+      <c r="K52" s="95">
+        <f>(J52+L52)/2</f>
+        <v>12.696428571428569</v>
+      </c>
+      <c r="L52" s="95">
+        <f>J47</f>
+        <v>16.928571428571427</v>
+      </c>
+      <c r="M52" s="95">
+        <f>K52*2</f>
+        <v>25.392857142857139</v>
+      </c>
+    </row>
+    <row r="53" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F53" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="H53" s="97" t="s">
+        <v>174</v>
+      </c>
+      <c r="I53" s="95">
+        <f t="shared" ref="I53:I54" si="4">J53/2</f>
+        <v>142.85714285714286</v>
+      </c>
+      <c r="J53" s="95">
+        <f>K48</f>
+        <v>285.71428571428572</v>
+      </c>
+      <c r="K53" s="95">
+        <f>(J53+L53)/2</f>
+        <v>428.57142857142856</v>
+      </c>
+      <c r="L53" s="95">
+        <f>J48</f>
+        <v>571.42857142857144</v>
+      </c>
+      <c r="M53" s="95">
+        <f t="shared" ref="M53" si="5">K53*2</f>
+        <v>857.14285714285711</v>
+      </c>
+    </row>
+    <row r="54" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F54" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="H54" s="97" t="s">
+        <v>175</v>
+      </c>
+      <c r="I54" s="95">
+        <f t="shared" si="4"/>
+        <v>214.28571428571428</v>
+      </c>
+      <c r="J54" s="95">
+        <f>K49</f>
+        <v>428.57142857142856</v>
+      </c>
+      <c r="K54" s="95">
+        <f t="shared" ref="K54" si="6">(J54+L54)/2</f>
+        <v>571.42857142857144</v>
+      </c>
+      <c r="L54" s="95">
+        <f>J49</f>
+        <v>714.28571428571433</v>
+      </c>
+      <c r="M54" s="95">
+        <f>K54*2</f>
+        <v>1142.8571428571429</v>
+      </c>
+    </row>
+    <row r="56" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F56" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="H56" s="79" t="s">
+        <v>129</v>
+      </c>
+      <c r="I56" s="79"/>
+      <c r="J56" s="22">
+        <f>J31</f>
+        <v>429.6875</v>
+      </c>
+      <c r="K56" s="80" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="57" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F57" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="J57" s="19">
+        <v>27</v>
+      </c>
+      <c r="L57" s="75" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F58" s="61" t="s">
+        <v>176</v>
+      </c>
+      <c r="H58" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="I58" s="22"/>
+      <c r="J58" s="90">
+        <f>(K54-J54)*(J57-20)/(30-20)+J54</f>
+        <v>528.57142857142856</v>
+      </c>
+      <c r="K58" s="22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="H59" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="I59" s="22"/>
+      <c r="J59" s="90">
+        <f>J58-J56</f>
+        <v>98.883928571428555</v>
+      </c>
+      <c r="K59" s="22" t="s">
+        <v>137</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5703,8 +6589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5783,7 +6669,7 @@
       </c>
     </row>
     <row r="8" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="67" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="11">
@@ -5792,16 +6678,16 @@
       <c r="D8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="68">
+      <c r="E8" s="67">
         <v>14</v>
       </c>
-      <c r="F8" s="69">
+      <c r="F8" s="68">
         <f>Solenoids!F10</f>
         <v>4.2</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="67" t="s">
         <v>41</v>
       </c>
       <c r="C9" s="11">
@@ -5810,16 +6696,16 @@
       <c r="D9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="68">
+      <c r="E9" s="67">
         <v>22</v>
       </c>
-      <c r="F9" s="69">
+      <c r="F9" s="68">
         <f>Solenoids!E10</f>
         <v>3.6</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="67" t="s">
         <v>40</v>
       </c>
       <c r="C10" s="11">
@@ -5828,16 +6714,16 @@
       <c r="D10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="68">
+      <c r="E10" s="67">
         <v>27</v>
       </c>
-      <c r="F10" s="69">
+      <c r="F10" s="68">
         <f>Solenoids!D10</f>
         <v>3.9</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="67" t="s">
         <v>39</v>
       </c>
       <c r="C11" s="11">
@@ -5846,10 +6732,10 @@
       <c r="D11" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="68">
+      <c r="E11" s="67">
         <v>17</v>
       </c>
-      <c r="F11" s="69">
+      <c r="F11" s="68">
         <f>Solenoids!C10</f>
         <v>4.5999999999999996</v>
       </c>
@@ -5869,58 +6755,58 @@
       </c>
     </row>
     <row r="15" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="68" t="s">
+      <c r="B15" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="68">
+      <c r="C15" s="67">
         <v>0</v>
       </c>
-      <c r="D15" s="68">
+      <c r="D15" s="67">
         <v>290</v>
       </c>
-      <c r="E15" s="69">
+      <c r="E15" s="68">
         <v>693</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="68" t="s">
+      <c r="B16" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="68">
+      <c r="C16" s="67">
         <v>1</v>
       </c>
-      <c r="D16" s="68">
+      <c r="D16" s="67">
         <v>293</v>
       </c>
-      <c r="E16" s="69">
+      <c r="E16" s="68">
         <v>628</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="68">
+      <c r="C17" s="67">
         <v>2</v>
       </c>
-      <c r="D17" s="68">
+      <c r="D17" s="67">
         <v>375</v>
       </c>
-      <c r="E17" s="69">
+      <c r="E17" s="68">
         <v>810</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="68" t="s">
+      <c r="B18" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="68">
+      <c r="C18" s="67">
         <v>3</v>
       </c>
-      <c r="D18" s="68">
+      <c r="D18" s="67">
         <v>321</v>
       </c>
-      <c r="E18" s="69">
+      <c r="E18" s="68">
         <v>695</v>
       </c>
     </row>
